--- a/selenium-qa/src/resources/data.xlsx
+++ b/selenium-qa/src/resources/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>S.No</t>
   </si>
@@ -46,12 +46,16 @@
   </si>
   <si>
     <t>des3</t>
+  </si>
+  <si>
+    <t>new text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>656</v>
